--- a/data_year/zb/人口/人口抽样调查样本数据/按受教育程度分人口数(人口抽样调查).xlsx
+++ b/data_year/zb/人口/人口抽样调查样本数据/按受教育程度分人口数(人口抽样调查).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,1038 +528,611 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1178951</v>
+        <v>1067267</v>
       </c>
       <c r="C2" t="n">
-        <v>443836</v>
+        <v>441905</v>
       </c>
       <c r="D2" t="n">
-        <v>198315</v>
+        <v>205537</v>
       </c>
       <c r="E2" t="n">
-        <v>245521</v>
+        <v>236369</v>
       </c>
       <c r="F2" t="n">
-        <v>55541</v>
+        <v>107348</v>
       </c>
       <c r="G2" t="n">
-        <v>22708</v>
+        <v>50334</v>
       </c>
       <c r="H2" t="n">
-        <v>32833</v>
+        <v>57013</v>
       </c>
       <c r="I2" t="n">
-        <v>579972</v>
+        <v>522514</v>
       </c>
       <c r="J2" t="n">
-        <v>412186</v>
+        <v>294232</v>
       </c>
       <c r="K2" t="n">
-        <v>210086</v>
+        <v>154854</v>
       </c>
       <c r="L2" t="n">
-        <v>202100</v>
+        <v>139378</v>
       </c>
       <c r="M2" t="n">
-        <v>120551</v>
+        <v>58732</v>
       </c>
       <c r="N2" t="n">
-        <v>85809</v>
+        <v>41268</v>
       </c>
       <c r="O2" t="n">
-        <v>34743</v>
+        <v>17464</v>
       </c>
       <c r="P2" t="n">
-        <v>598979</v>
+        <v>544753</v>
       </c>
       <c r="Q2" t="n">
-        <v>146837</v>
+        <v>165049</v>
       </c>
       <c r="R2" t="n">
-        <v>63055</v>
+        <v>70521</v>
       </c>
       <c r="S2" t="n">
-        <v>83782</v>
+        <v>94528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1182247</v>
+        <v>1047865</v>
       </c>
       <c r="C3" t="n">
-        <v>449693</v>
+        <v>430799</v>
       </c>
       <c r="D3" t="n">
-        <v>203146</v>
+        <v>200162</v>
       </c>
       <c r="E3" t="n">
-        <v>246547</v>
+        <v>230637</v>
       </c>
       <c r="F3" t="n">
-        <v>64875</v>
+        <v>110990</v>
       </c>
       <c r="G3" t="n">
-        <v>26692</v>
+        <v>51610</v>
       </c>
       <c r="H3" t="n">
-        <v>38183</v>
+        <v>59380</v>
       </c>
       <c r="I3" t="n">
-        <v>581653</v>
+        <v>513062</v>
       </c>
       <c r="J3" t="n">
-        <v>395118</v>
+        <v>281681</v>
       </c>
       <c r="K3" t="n">
-        <v>201903</v>
+        <v>148134</v>
       </c>
       <c r="L3" t="n">
-        <v>193215</v>
+        <v>133547</v>
       </c>
       <c r="M3" t="n">
-        <v>114500</v>
+        <v>55454</v>
       </c>
       <c r="N3" t="n">
-        <v>81141</v>
+        <v>38701</v>
       </c>
       <c r="O3" t="n">
-        <v>33359</v>
+        <v>16753</v>
       </c>
       <c r="P3" t="n">
-        <v>600593</v>
+        <v>534803</v>
       </c>
       <c r="Q3" t="n">
-        <v>158060</v>
+        <v>168941</v>
       </c>
       <c r="R3" t="n">
-        <v>68771</v>
+        <v>74454</v>
       </c>
       <c r="S3" t="n">
-        <v>89289</v>
+        <v>94487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1177817</v>
+        <v>1041825</v>
       </c>
       <c r="C4" t="n">
-        <v>462796</v>
+        <v>425144</v>
       </c>
       <c r="D4" t="n">
-        <v>211515</v>
+        <v>199266</v>
       </c>
       <c r="E4" t="n">
-        <v>251281</v>
+        <v>225878</v>
       </c>
       <c r="F4" t="n">
-        <v>67945</v>
+        <v>117925</v>
       </c>
       <c r="G4" t="n">
-        <v>28607</v>
+        <v>54336</v>
       </c>
       <c r="H4" t="n">
-        <v>39339</v>
+        <v>63590</v>
       </c>
       <c r="I4" t="n">
-        <v>582128</v>
+        <v>509754</v>
       </c>
       <c r="J4" t="n">
-        <v>381371</v>
+        <v>274658</v>
       </c>
       <c r="K4" t="n">
-        <v>195865</v>
+        <v>144299</v>
       </c>
       <c r="L4" t="n">
-        <v>185506</v>
+        <v>130360</v>
       </c>
       <c r="M4" t="n">
-        <v>107922</v>
+        <v>52010</v>
       </c>
       <c r="N4" t="n">
-        <v>76641</v>
+        <v>35738</v>
       </c>
       <c r="O4" t="n">
-        <v>31281</v>
+        <v>16272</v>
       </c>
       <c r="P4" t="n">
-        <v>595688</v>
+        <v>532072</v>
       </c>
       <c r="Q4" t="n">
-        <v>157783</v>
+        <v>172088</v>
       </c>
       <c r="R4" t="n">
-        <v>69501</v>
+        <v>76116</v>
       </c>
       <c r="S4" t="n">
-        <v>88282</v>
+        <v>95972</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15878355</v>
+        <v>1047090</v>
       </c>
       <c r="C5" t="n">
-        <v>6088659</v>
+        <v>420432</v>
       </c>
       <c r="D5" t="n">
-        <v>2771747</v>
+        <v>194309</v>
       </c>
       <c r="E5" t="n">
-        <v>3316912</v>
+        <v>226122</v>
       </c>
       <c r="F5" t="n">
-        <v>883192</v>
+        <v>120698</v>
       </c>
       <c r="G5" t="n">
-        <v>377404</v>
+        <v>57334</v>
       </c>
       <c r="H5" t="n">
-        <v>505789</v>
+        <v>63364</v>
       </c>
       <c r="I5" t="n">
-        <v>7902969</v>
+        <v>512802</v>
       </c>
       <c r="J5" t="n">
-        <v>5285045</v>
+        <v>274858</v>
       </c>
       <c r="K5" t="n">
-        <v>2703412</v>
+        <v>145076</v>
       </c>
       <c r="L5" t="n">
-        <v>2581633</v>
+        <v>129783</v>
       </c>
       <c r="M5" t="n">
-        <v>1646360</v>
+        <v>56255</v>
       </c>
       <c r="N5" t="n">
-        <v>1196272</v>
+        <v>39492</v>
       </c>
       <c r="O5" t="n">
-        <v>450088</v>
+        <v>16763</v>
       </c>
       <c r="P5" t="n">
-        <v>7975386</v>
+        <v>534288</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975098</v>
+        <v>174847</v>
       </c>
       <c r="R5" t="n">
-        <v>854134</v>
+        <v>76591</v>
       </c>
       <c r="S5" t="n">
-        <v>1120964</v>
+        <v>98256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1118855</v>
+        <v>19833469</v>
       </c>
       <c r="C6" t="n">
-        <v>436273</v>
+        <v>7600489</v>
       </c>
       <c r="D6" t="n">
-        <v>199374</v>
+        <v>3514057</v>
       </c>
       <c r="E6" t="n">
-        <v>236899</v>
+        <v>4086432</v>
       </c>
       <c r="F6" t="n">
-        <v>69581</v>
+        <v>2643490</v>
       </c>
       <c r="G6" t="n">
-        <v>30056</v>
+        <v>1249104</v>
       </c>
       <c r="H6" t="n">
-        <v>39525</v>
+        <v>1394386</v>
       </c>
       <c r="I6" t="n">
-        <v>555103</v>
+        <v>9712363</v>
       </c>
       <c r="J6" t="n">
-        <v>370014</v>
+        <v>5199574</v>
       </c>
       <c r="K6" t="n">
-        <v>191438</v>
+        <v>2702967</v>
       </c>
       <c r="L6" t="n">
-        <v>178576</v>
+        <v>2496606</v>
       </c>
       <c r="M6" t="n">
-        <v>98335</v>
+        <v>1128946</v>
       </c>
       <c r="N6" t="n">
-        <v>71448</v>
+        <v>802847</v>
       </c>
       <c r="O6" t="n">
-        <v>26886</v>
+        <v>326099</v>
       </c>
       <c r="P6" t="n">
-        <v>563752</v>
+        <v>10121107</v>
       </c>
       <c r="Q6" t="n">
-        <v>144652</v>
+        <v>3260972</v>
       </c>
       <c r="R6" t="n">
-        <v>62787</v>
+        <v>1443388</v>
       </c>
       <c r="S6" t="n">
-        <v>81865</v>
+        <v>1817584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1116037</v>
+        <v>1077322</v>
       </c>
       <c r="C7" t="n">
-        <v>448897</v>
+        <v>418395</v>
       </c>
       <c r="D7" t="n">
-        <v>206667</v>
+        <v>193229</v>
       </c>
       <c r="E7" t="n">
-        <v>242231</v>
+        <v>225166</v>
       </c>
       <c r="F7" t="n">
-        <v>73184</v>
+        <v>139370</v>
       </c>
       <c r="G7" t="n">
-        <v>32497</v>
+        <v>65946</v>
       </c>
       <c r="H7" t="n">
-        <v>40687</v>
+        <v>73423</v>
       </c>
       <c r="I7" t="n">
-        <v>553373</v>
+        <v>527599</v>
       </c>
       <c r="J7" t="n">
-        <v>354873</v>
+        <v>275939</v>
       </c>
       <c r="K7" t="n">
-        <v>185041</v>
+        <v>144398</v>
       </c>
       <c r="L7" t="n">
-        <v>169833</v>
+        <v>131541</v>
       </c>
       <c r="M7" t="n">
-        <v>89448</v>
+        <v>61448</v>
       </c>
       <c r="N7" t="n">
-        <v>64920</v>
+        <v>43181</v>
       </c>
       <c r="O7" t="n">
-        <v>24528</v>
+        <v>18267</v>
       </c>
       <c r="P7" t="n">
-        <v>562664</v>
+        <v>549723</v>
       </c>
       <c r="Q7" t="n">
-        <v>149635</v>
+        <v>182171</v>
       </c>
       <c r="R7" t="n">
-        <v>64249</v>
+        <v>80845</v>
       </c>
       <c r="S7" t="n">
-        <v>85386</v>
+        <v>101326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1106434</v>
+        <v>1063758</v>
       </c>
       <c r="C8" t="n">
-        <v>452929</v>
+        <v>404872</v>
       </c>
       <c r="D8" t="n">
-        <v>208903</v>
+        <v>186987</v>
       </c>
       <c r="E8" t="n">
-        <v>244026</v>
+        <v>217886</v>
       </c>
       <c r="F8" t="n">
-        <v>74175</v>
+        <v>147593</v>
       </c>
       <c r="G8" t="n">
-        <v>32619</v>
+        <v>70919</v>
       </c>
       <c r="H8" t="n">
-        <v>41558</v>
+        <v>76674</v>
       </c>
       <c r="I8" t="n">
-        <v>547852</v>
+        <v>521217</v>
       </c>
       <c r="J8" t="n">
-        <v>344870</v>
+        <v>268406</v>
       </c>
       <c r="K8" t="n">
-        <v>180731</v>
+        <v>140791</v>
       </c>
       <c r="L8" t="n">
-        <v>164139</v>
+        <v>127614</v>
       </c>
       <c r="M8" t="n">
-        <v>82987</v>
+        <v>56152</v>
       </c>
       <c r="N8" t="n">
-        <v>60039</v>
+        <v>39859</v>
       </c>
       <c r="O8" t="n">
-        <v>22947</v>
+        <v>16293</v>
       </c>
       <c r="P8" t="n">
-        <v>558582</v>
+        <v>542541</v>
       </c>
       <c r="Q8" t="n">
-        <v>151474</v>
+        <v>186735</v>
       </c>
       <c r="R8" t="n">
-        <v>65562</v>
+        <v>82662</v>
       </c>
       <c r="S8" t="n">
-        <v>85912</v>
+        <v>104073</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1091868</v>
+        <v>1064195</v>
       </c>
       <c r="C9" t="n">
-        <v>455002</v>
+        <v>401864</v>
       </c>
       <c r="D9" t="n">
-        <v>210722</v>
+        <v>185260</v>
       </c>
       <c r="E9" t="n">
-        <v>244280</v>
+        <v>216604</v>
       </c>
       <c r="F9" t="n">
-        <v>79567</v>
+        <v>149104</v>
       </c>
       <c r="G9" t="n">
-        <v>35404</v>
+        <v>71487</v>
       </c>
       <c r="H9" t="n">
-        <v>44163</v>
+        <v>77616</v>
       </c>
       <c r="I9" t="n">
-        <v>540356</v>
+        <v>521826</v>
       </c>
       <c r="J9" t="n">
-        <v>328934</v>
+        <v>268951</v>
       </c>
       <c r="K9" t="n">
-        <v>172995</v>
+        <v>141004</v>
       </c>
       <c r="L9" t="n">
-        <v>155939</v>
+        <v>127947</v>
       </c>
       <c r="M9" t="n">
-        <v>77716</v>
+        <v>57483</v>
       </c>
       <c r="N9" t="n">
-        <v>55412</v>
+        <v>41001</v>
       </c>
       <c r="O9" t="n">
-        <v>22304</v>
+        <v>16481</v>
       </c>
       <c r="P9" t="n">
-        <v>551512</v>
+        <v>542369</v>
       </c>
       <c r="Q9" t="n">
-        <v>150648</v>
+        <v>186794</v>
       </c>
       <c r="R9" t="n">
-        <v>65821</v>
+        <v>83074</v>
       </c>
       <c r="S9" t="n">
-        <v>84827</v>
+        <v>103720</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1067267</v>
+        <v>1016417</v>
       </c>
       <c r="C10" t="n">
-        <v>441905</v>
+        <v>379039</v>
       </c>
       <c r="D10" t="n">
-        <v>205537</v>
+        <v>175189</v>
       </c>
       <c r="E10" t="n">
-        <v>236369</v>
+        <v>203850</v>
       </c>
       <c r="F10" t="n">
-        <v>107348</v>
+        <v>148170</v>
       </c>
       <c r="G10" t="n">
-        <v>50334</v>
+        <v>70984</v>
       </c>
       <c r="H10" t="n">
-        <v>57013</v>
+        <v>77186</v>
       </c>
       <c r="I10" t="n">
-        <v>522514</v>
+        <v>498764</v>
       </c>
       <c r="J10" t="n">
-        <v>294232</v>
+        <v>257030</v>
       </c>
       <c r="K10" t="n">
-        <v>154854</v>
+        <v>135591</v>
       </c>
       <c r="L10" t="n">
-        <v>139378</v>
+        <v>121439</v>
       </c>
       <c r="M10" t="n">
-        <v>58732</v>
+        <v>51892</v>
       </c>
       <c r="N10" t="n">
-        <v>41268</v>
+        <v>37178</v>
       </c>
       <c r="O10" t="n">
-        <v>17464</v>
+        <v>14714</v>
       </c>
       <c r="P10" t="n">
-        <v>544753</v>
+        <v>517653</v>
       </c>
       <c r="Q10" t="n">
-        <v>165049</v>
+        <v>180285</v>
       </c>
       <c r="R10" t="n">
-        <v>70521</v>
+        <v>79821</v>
       </c>
       <c r="S10" t="n">
-        <v>94528</v>
+        <v>100465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1047865</v>
+        <v>1402340</v>
       </c>
       <c r="C11" t="n">
-        <v>430799</v>
+        <v>487144</v>
       </c>
       <c r="D11" t="n">
-        <v>200162</v>
+        <v>223962</v>
       </c>
       <c r="E11" t="n">
-        <v>230637</v>
+        <v>263182</v>
       </c>
       <c r="F11" t="n">
-        <v>110990</v>
+        <v>264467</v>
       </c>
       <c r="G11" t="n">
-        <v>51610</v>
+        <v>126857</v>
       </c>
       <c r="H11" t="n">
-        <v>59380</v>
+        <v>137608</v>
       </c>
       <c r="I11" t="n">
-        <v>513062</v>
+        <v>686673</v>
       </c>
       <c r="J11" t="n">
-        <v>281681</v>
+        <v>365918</v>
       </c>
       <c r="K11" t="n">
-        <v>148134</v>
+        <v>195372</v>
       </c>
       <c r="L11" t="n">
-        <v>133547</v>
+        <v>170546</v>
       </c>
       <c r="M11" t="n">
-        <v>55454</v>
+        <v>51186</v>
       </c>
       <c r="N11" t="n">
-        <v>38701</v>
+        <v>36501</v>
       </c>
       <c r="O11" t="n">
-        <v>16753</v>
+        <v>14686</v>
       </c>
       <c r="P11" t="n">
-        <v>534803</v>
+        <v>715667</v>
       </c>
       <c r="Q11" t="n">
-        <v>168941</v>
+        <v>233626</v>
       </c>
       <c r="R11" t="n">
-        <v>74454</v>
+        <v>103981</v>
       </c>
       <c r="S11" t="n">
-        <v>94487</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1041825</v>
-      </c>
-      <c r="C12" t="n">
-        <v>425144</v>
-      </c>
-      <c r="D12" t="n">
-        <v>199266</v>
-      </c>
-      <c r="E12" t="n">
-        <v>225878</v>
-      </c>
-      <c r="F12" t="n">
-        <v>117925</v>
-      </c>
-      <c r="G12" t="n">
-        <v>54336</v>
-      </c>
-      <c r="H12" t="n">
-        <v>63590</v>
-      </c>
-      <c r="I12" t="n">
-        <v>509754</v>
-      </c>
-      <c r="J12" t="n">
-        <v>274658</v>
-      </c>
-      <c r="K12" t="n">
-        <v>144299</v>
-      </c>
-      <c r="L12" t="n">
-        <v>130360</v>
-      </c>
-      <c r="M12" t="n">
-        <v>52010</v>
-      </c>
-      <c r="N12" t="n">
-        <v>35738</v>
-      </c>
-      <c r="O12" t="n">
-        <v>16272</v>
-      </c>
-      <c r="P12" t="n">
-        <v>532072</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>172088</v>
-      </c>
-      <c r="R12" t="n">
-        <v>76116</v>
-      </c>
-      <c r="S12" t="n">
-        <v>95972</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1047090</v>
-      </c>
-      <c r="C13" t="n">
-        <v>420432</v>
-      </c>
-      <c r="D13" t="n">
-        <v>194309</v>
-      </c>
-      <c r="E13" t="n">
-        <v>226122</v>
-      </c>
-      <c r="F13" t="n">
-        <v>120698</v>
-      </c>
-      <c r="G13" t="n">
-        <v>57334</v>
-      </c>
-      <c r="H13" t="n">
-        <v>63364</v>
-      </c>
-      <c r="I13" t="n">
-        <v>512802</v>
-      </c>
-      <c r="J13" t="n">
-        <v>274858</v>
-      </c>
-      <c r="K13" t="n">
-        <v>145076</v>
-      </c>
-      <c r="L13" t="n">
-        <v>129783</v>
-      </c>
-      <c r="M13" t="n">
-        <v>56255</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39492</v>
-      </c>
-      <c r="O13" t="n">
-        <v>16763</v>
-      </c>
-      <c r="P13" t="n">
-        <v>534288</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>174847</v>
-      </c>
-      <c r="R13" t="n">
-        <v>76591</v>
-      </c>
-      <c r="S13" t="n">
-        <v>98256</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>19833469</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7600489</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3514057</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4086432</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2643490</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1249104</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1394386</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9712363</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5199574</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2702967</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2496606</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1128946</v>
-      </c>
-      <c r="N14" t="n">
-        <v>802847</v>
-      </c>
-      <c r="O14" t="n">
-        <v>326099</v>
-      </c>
-      <c r="P14" t="n">
-        <v>10121107</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3260972</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1443388</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1817584</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1077322</v>
-      </c>
-      <c r="C15" t="n">
-        <v>418395</v>
-      </c>
-      <c r="D15" t="n">
-        <v>193229</v>
-      </c>
-      <c r="E15" t="n">
-        <v>225166</v>
-      </c>
-      <c r="F15" t="n">
-        <v>139370</v>
-      </c>
-      <c r="G15" t="n">
-        <v>65946</v>
-      </c>
-      <c r="H15" t="n">
-        <v>73423</v>
-      </c>
-      <c r="I15" t="n">
-        <v>527599</v>
-      </c>
-      <c r="J15" t="n">
-        <v>275939</v>
-      </c>
-      <c r="K15" t="n">
-        <v>144398</v>
-      </c>
-      <c r="L15" t="n">
-        <v>131541</v>
-      </c>
-      <c r="M15" t="n">
-        <v>61448</v>
-      </c>
-      <c r="N15" t="n">
-        <v>43181</v>
-      </c>
-      <c r="O15" t="n">
-        <v>18267</v>
-      </c>
-      <c r="P15" t="n">
-        <v>549723</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>182171</v>
-      </c>
-      <c r="R15" t="n">
-        <v>80845</v>
-      </c>
-      <c r="S15" t="n">
-        <v>101326</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1063758</v>
-      </c>
-      <c r="C16" t="n">
-        <v>404872</v>
-      </c>
-      <c r="D16" t="n">
-        <v>186987</v>
-      </c>
-      <c r="E16" t="n">
-        <v>217886</v>
-      </c>
-      <c r="F16" t="n">
-        <v>147593</v>
-      </c>
-      <c r="G16" t="n">
-        <v>70919</v>
-      </c>
-      <c r="H16" t="n">
-        <v>76674</v>
-      </c>
-      <c r="I16" t="n">
-        <v>521217</v>
-      </c>
-      <c r="J16" t="n">
-        <v>268406</v>
-      </c>
-      <c r="K16" t="n">
-        <v>140791</v>
-      </c>
-      <c r="L16" t="n">
-        <v>127614</v>
-      </c>
-      <c r="M16" t="n">
-        <v>56152</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39859</v>
-      </c>
-      <c r="O16" t="n">
-        <v>16293</v>
-      </c>
-      <c r="P16" t="n">
-        <v>542541</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>186735</v>
-      </c>
-      <c r="R16" t="n">
-        <v>82662</v>
-      </c>
-      <c r="S16" t="n">
-        <v>104073</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1064195</v>
-      </c>
-      <c r="C17" t="n">
-        <v>401864</v>
-      </c>
-      <c r="D17" t="n">
-        <v>185260</v>
-      </c>
-      <c r="E17" t="n">
-        <v>216604</v>
-      </c>
-      <c r="F17" t="n">
-        <v>149104</v>
-      </c>
-      <c r="G17" t="n">
-        <v>71487</v>
-      </c>
-      <c r="H17" t="n">
-        <v>77616</v>
-      </c>
-      <c r="I17" t="n">
-        <v>521826</v>
-      </c>
-      <c r="J17" t="n">
-        <v>268951</v>
-      </c>
-      <c r="K17" t="n">
-        <v>141004</v>
-      </c>
-      <c r="L17" t="n">
-        <v>127947</v>
-      </c>
-      <c r="M17" t="n">
-        <v>57483</v>
-      </c>
-      <c r="N17" t="n">
-        <v>41001</v>
-      </c>
-      <c r="O17" t="n">
-        <v>16481</v>
-      </c>
-      <c r="P17" t="n">
-        <v>542369</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>186794</v>
-      </c>
-      <c r="R17" t="n">
-        <v>83074</v>
-      </c>
-      <c r="S17" t="n">
-        <v>103720</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1016417</v>
-      </c>
-      <c r="C18" t="n">
-        <v>379039</v>
-      </c>
-      <c r="D18" t="n">
-        <v>175189</v>
-      </c>
-      <c r="E18" t="n">
-        <v>203850</v>
-      </c>
-      <c r="F18" t="n">
-        <v>148170</v>
-      </c>
-      <c r="G18" t="n">
-        <v>70984</v>
-      </c>
-      <c r="H18" t="n">
-        <v>77186</v>
-      </c>
-      <c r="I18" t="n">
-        <v>498764</v>
-      </c>
-      <c r="J18" t="n">
-        <v>257030</v>
-      </c>
-      <c r="K18" t="n">
-        <v>135591</v>
-      </c>
-      <c r="L18" t="n">
-        <v>121439</v>
-      </c>
-      <c r="M18" t="n">
-        <v>51892</v>
-      </c>
-      <c r="N18" t="n">
-        <v>37178</v>
-      </c>
-      <c r="O18" t="n">
-        <v>14714</v>
-      </c>
-      <c r="P18" t="n">
-        <v>517653</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>180285</v>
-      </c>
-      <c r="R18" t="n">
-        <v>79821</v>
-      </c>
-      <c r="S18" t="n">
-        <v>100465</v>
+        <v>129645</v>
       </c>
     </row>
   </sheetData>
